--- a/medicine/Mort/Enfeus_de_Saint-Paul-de-Tartas/Enfeus_de_Saint-Paul-de-Tartas.xlsx
+++ b/medicine/Mort/Enfeus_de_Saint-Paul-de-Tartas/Enfeus_de_Saint-Paul-de-Tartas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les enfeus de Saint-Paul-de-Tartas sont des enfeus situés à Saint-Paul-de-Tartas, en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enfeus de Saint-Paul-de-Tartas sont des enfeus situés à Saint-Paul-de-Tartas, en France.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enfeus sont situés dans le département français de la Haute-Loire, dans le mur de clôture nord du cimetière de la commune de Saint-Paul-de-Tartas.
 </t>
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les enfeus, datant du XIIIe siècle, consistent en une indentation simple réalisée dans le mur, surmontée d'un arc brisé et accompagnée de colonnettes. Un écusson, effacé par les intempéries, était initialement présent[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enfeus, datant du XIIIe siècle, consistent en une indentation simple réalisée dans le mur, surmontée d'un arc brisé et accompagnée de colonnettes. Un écusson, effacé par les intempéries, était initialement présent.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les enfeus du XIIIe siècle sont classés au titre des monuments historiques par arrêté du 16 septembre 1907[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enfeus du XIIIe siècle sont classés au titre des monuments historiques par arrêté du 16 septembre 1907.
 </t>
         </is>
       </c>
